--- a/biology/Zoologie/Helmoreus/Helmoreus.xlsx
+++ b/biology/Zoologie/Helmoreus/Helmoreus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helmoreus est un genre d'insectes de la famille des Anthribidae. Ces espèces se rencontrent en Australie, en Nouvelle-Zélande et en Nouvelle-Calédonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Helmoreus agathidis Kuschel, 1998
 Helmoreus curvirostris Kuschel, 1998
@@ -548,7 +562,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre est un hommage à l’illustrateur néo-zélandais Des Helmore.
 </t>
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Beverley Anne Holloway, « Anthribidae (Insecta: Coleoptera) », Fauna of New Zealand, Department of Scientific and Industrial Research, vol. 3,‎ 23 décembre 1982, p. 1-272 (ISBN 0-477-06703-4, ISSN 0111-5383 et 1179-7193, OCLC 635800719, DOI 10.7931/J2/FNZ.3, lire en ligne)</t>
         </is>
